--- a/TEST CASES/REC Test Cases.xlsx
+++ b/TEST CASES/REC Test Cases.xlsx
@@ -11,8 +11,133 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Precondictionals</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Expected Resaults</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Web_contact</t>
+  </si>
+  <si>
+    <t>Web_contact_1</t>
+  </si>
+  <si>
+    <t>Web_menu</t>
+  </si>
+  <si>
+    <t>Web_About_us</t>
+  </si>
+  <si>
+    <t>Web_Carrer</t>
+  </si>
+  <si>
+    <t>Sending a message by website</t>
+  </si>
+  <si>
+    <t>The test checks if it is possible to send messages through the website.</t>
+  </si>
+  <si>
+    <t>1. Run Chrome Webbrowser
+2. Go to rec-global.com
+3. Click "Contact" from navigation bar on top website 
+4. Fill the form to send message (data in Comment 1)
+5. Press Submit button</t>
+  </si>
+  <si>
+    <t>Comment 1:
+Data to send message:
+Name: NAME
+Email:EMAIL[at]email.com
+Subject: TEMAT
+Message: Text</t>
+  </si>
+  <si>
+    <t>Test checks if its available to go to About_us on webside.</t>
+  </si>
+  <si>
+    <t>Go to About us</t>
+  </si>
+  <si>
+    <t>1.  Go to rec-global.com
+2. Click "About us" from navigation bar on top website.</t>
+  </si>
+  <si>
+    <t>1.  rec-global.pl website is available
+2. After click Contact on navigation bar we will go to "Contact" section on website
+3.  Fields in section Contact are available.
+4. Submit button is available
+5. Message was send.</t>
+  </si>
+  <si>
+    <t>1.  rec-global.pl website is available
+2. After click About us on navigation bar we will go to "About us" section on website
+3. Section About us is visible
+4. Submit button is available</t>
+  </si>
+  <si>
+    <t>1. Go to rec-global.com
+2. Click "Carrer" from navigation bar on top website.</t>
+  </si>
+  <si>
+    <t>1.  rec-global.pl website is available
+2. After click Web carrer on navigation bar we will go to "Carrer" section on website
+3. Section Carrer is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Carrer </t>
+  </si>
+  <si>
+    <t>Web_Search</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Search job offer on site</t>
+  </si>
+  <si>
+    <t>Test checks if its available to find a job offer using search option on the website.</t>
+  </si>
+  <si>
+    <t>Test checks if its available to go to Carrer on website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to: http://www.rec-global.com/search?searchword=QA%20Engineer&amp;ordering=newest&amp;searchphrase=exact&amp;limit=20
+2. Check search resault
+</t>
+  </si>
+  <si>
+    <t>1. Website is available
+2. Found 3 resaults.
+3. There is 2 highlight text "QA Engineer"</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,15 +152,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -43,12 +174,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -343,14 +593,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="150">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="90">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="90">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TEST CASES/REC Test Cases.xlsx
+++ b/TEST CASES/REC Test Cases.xlsx
@@ -119,12 +119,6 @@
     <t>Web</t>
   </si>
   <si>
-    <t>Search job offer on site</t>
-  </si>
-  <si>
-    <t>Test checks if its available to find a job offer using search option on the website.</t>
-  </si>
-  <si>
     <t>Test checks if its available to go to Carrer on website.</t>
   </si>
   <si>
@@ -134,8 +128,13 @@
   </si>
   <si>
     <t>1. Website is available
-2. Found 3 resaults.
-3. There is 2 highlight text "QA Engineer"</t>
+2. There is 2 highlight text "QA Engineer"</t>
+  </si>
+  <si>
+    <t>Test checks if its available to find "QA Engineer" highlight text.</t>
+  </si>
+  <si>
+    <t>Search "QA Engineer" text.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +595,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -713,17 +712,17 @@
         <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6"/>
     </row>
